--- a/data/trans_orig/P40-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P40-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>5283</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1688</v>
+        <v>1765</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12022</v>
+        <v>12552</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005125516245362519</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001638035426971638</v>
+        <v>0.001712109579743546</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01166322912023965</v>
+        <v>0.0121773913965249</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -765,19 +765,19 @@
         <v>5193</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1952</v>
+        <v>1936</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11466</v>
+        <v>11897</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003954465630530783</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001485943599229857</v>
+        <v>0.001474012355202755</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.008730531708474066</v>
+        <v>0.009058586515216046</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -786,19 +786,19 @@
         <v>10477</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5434</v>
+        <v>5580</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18621</v>
+        <v>18818</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004469414890736051</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002318113923302378</v>
+        <v>0.002380255366153221</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007943967090696273</v>
+        <v>0.00802801283421507</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>44617</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33322</v>
+        <v>33584</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>57661</v>
+        <v>57756</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04328515269909838</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03232705625198913</v>
+        <v>0.03258145912198553</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05593940964805779</v>
+        <v>0.05603160677979614</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>126</v>
@@ -836,19 +836,19 @@
         <v>130095</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>110173</v>
+        <v>109515</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>152615</v>
+        <v>152363</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09905752042247384</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08388841364984793</v>
+        <v>0.08338730741488413</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.116204744132159</v>
+        <v>0.1160133661108923</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>174</v>
@@ -857,19 +857,19 @@
         <v>174712</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>151261</v>
+        <v>151090</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>203234</v>
+        <v>201713</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07453258602997105</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06452846353545838</v>
+        <v>0.06445516119368815</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08669986505331008</v>
+        <v>0.08605101444122176</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>275502</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>248135</v>
+        <v>249282</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>304389</v>
+        <v>305264</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2672757752946132</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2407253926926282</v>
+        <v>0.2418380588223559</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2953000359808299</v>
+        <v>0.2961484376928952</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>466</v>
@@ -907,19 +907,19 @@
         <v>479960</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>443580</v>
+        <v>447503</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>511801</v>
+        <v>514786</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3654540648469736</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3377535566491396</v>
+        <v>0.3407404268010126</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3896987159793545</v>
+        <v>0.3919716898924134</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>744</v>
@@ -928,19 +928,19 @@
         <v>755462</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>712216</v>
+        <v>714389</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>805111</v>
+        <v>801970</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3222818595358727</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3038329704158537</v>
+        <v>0.3047597475604435</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3434619852449607</v>
+        <v>0.3421220523209053</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>587261</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>555816</v>
+        <v>551719</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>619167</v>
+        <v>617566</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5697256852579186</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5392192572356332</v>
+        <v>0.5352445530569186</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6006785220693659</v>
+        <v>0.5991258507308905</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>598</v>
@@ -978,19 +978,19 @@
         <v>601230</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>567801</v>
+        <v>566867</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>640520</v>
+        <v>638618</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4577922571350238</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4323383805095745</v>
+        <v>0.4316272537802724</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4877087135392861</v>
+        <v>0.4862605981408739</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1187</v>
@@ -999,19 +999,19 @@
         <v>1188491</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1141288</v>
+        <v>1137160</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1240521</v>
+        <v>1234950</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5070130468038003</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4868760404177078</v>
+        <v>0.4851150766087368</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5292091810085744</v>
+        <v>0.5268323746871268</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>118115</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>98646</v>
+        <v>99259</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>139042</v>
+        <v>139859</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1145878705030074</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09570054176045556</v>
+        <v>0.09629472015481855</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1348906614178039</v>
+        <v>0.1356832310649571</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>94</v>
@@ -1049,19 +1049,19 @@
         <v>96847</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>79052</v>
+        <v>80035</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>118229</v>
+        <v>119365</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07374169196499795</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06019191344137268</v>
+        <v>0.0609404774006062</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09002301871805861</v>
+        <v>0.09088739129138507</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>211</v>
@@ -1070,19 +1070,19 @@
         <v>214962</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>188182</v>
+        <v>189732</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>245045</v>
+        <v>244442</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09170309273961989</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08027894194519189</v>
+        <v>0.08094022080310079</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1045366878808634</v>
+        <v>0.1042794103239609</v>
       </c>
     </row>
     <row r="9">
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6200</v>
+        <v>6380</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001060692760934085</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.003665145507135543</v>
+        <v>0.003771862099819944</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>11054</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5511</v>
+        <v>5361</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20038</v>
+        <v>19149</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006962514253610687</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003470957604388876</v>
+        <v>0.003376650676053411</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01262120978317316</v>
+        <v>0.01206118408001837</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -1216,19 +1216,19 @@
         <v>12848</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6783</v>
+        <v>6631</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21633</v>
+        <v>20338</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003918141760443057</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002068461486087227</v>
+        <v>0.002022009088333572</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.006596915086720173</v>
+        <v>0.00620204825016643</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>12979</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6780</v>
+        <v>7306</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21225</v>
+        <v>21471</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.007673213636268881</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004008029855770408</v>
+        <v>0.004319236473762463</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01254776356913939</v>
+        <v>0.0126934314016106</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>36</v>
@@ -1266,19 +1266,19 @@
         <v>36115</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>25454</v>
+        <v>25678</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>48745</v>
+        <v>48289</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02274743081260406</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01603253367341131</v>
+        <v>0.01617346174230034</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0307019014191777</v>
+        <v>0.03041500723818868</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>50</v>
@@ -1287,19 +1287,19 @@
         <v>49095</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>36761</v>
+        <v>37519</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>63986</v>
+        <v>64038</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01497160563988149</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01121048259433893</v>
+        <v>0.01144156272749521</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01951254540564781</v>
+        <v>0.01952865085639124</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>133874</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>114106</v>
+        <v>113322</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>157997</v>
+        <v>158742</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0791436532453685</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06745700762209111</v>
+        <v>0.06699343025444864</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09340445075636775</v>
+        <v>0.09384531768941766</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>227</v>
@@ -1337,19 +1337,19 @@
         <v>232818</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>205712</v>
+        <v>203892</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>262797</v>
+        <v>258969</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1466410715825164</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1295680252344724</v>
+        <v>0.1284218777668789</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.165523329753902</v>
+        <v>0.1631123840426995</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>358</v>
@@ -1358,19 +1358,19 @@
         <v>366692</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>331825</v>
+        <v>330670</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>406367</v>
+        <v>399918</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1118234675596864</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1011906799357849</v>
+        <v>0.1008384857961628</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1239223928883947</v>
+        <v>0.121955864467454</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>1161022</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1123177</v>
+        <v>1120082</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1197078</v>
+        <v>1197742</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6863729472434293</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6639991658955682</v>
+        <v>0.6621700070837911</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7076881058899606</v>
+        <v>0.7080810523044868</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1018</v>
@@ -1408,19 +1408,19 @@
         <v>1039161</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1000209</v>
+        <v>999629</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1076307</v>
+        <v>1077548</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6545184144444719</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.629984327365588</v>
+        <v>0.6296191978942656</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6779149492135923</v>
+        <v>0.6786966923850192</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2146</v>
@@ -1429,19 +1429,19 @@
         <v>2200184</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2144855</v>
+        <v>2145199</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2251724</v>
+        <v>2250478</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6709501319330792</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6540775480638604</v>
+        <v>0.6541824808144159</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6866673161938273</v>
+        <v>0.6862875050327069</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>381863</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>349878</v>
+        <v>347674</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>416690</v>
+        <v>416018</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2257494931139991</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2068404828001078</v>
+        <v>0.2055380192654277</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2463386977695587</v>
+        <v>0.2459412722329136</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>262</v>
@@ -1479,19 +1479,19 @@
         <v>268524</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>237601</v>
+        <v>238718</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>298139</v>
+        <v>299874</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.169130568906797</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1496536156707121</v>
+        <v>0.1503573021414469</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1877838798503769</v>
+        <v>0.1888765185838686</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>634</v>
@@ -1500,19 +1500,19 @@
         <v>650387</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>605556</v>
+        <v>608499</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>698025</v>
+        <v>698692</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1983366531069099</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1846654280517953</v>
+        <v>0.1855630281048186</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2128639580590611</v>
+        <v>0.2130675474956809</v>
       </c>
     </row>
     <row r="15">
@@ -1617,19 +1617,19 @@
         <v>3546</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10279</v>
+        <v>10057</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007442486275130821</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00203794058964982</v>
+        <v>0.002018165466279186</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02157561292279835</v>
+        <v>0.02111035751996525</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1638,19 +1638,19 @@
         <v>3546</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10841</v>
+        <v>9833</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003449717404331292</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0009471410191086771</v>
+        <v>0.0009473985643976698</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01054777763455939</v>
+        <v>0.009566788544276719</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>11515</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5459</v>
+        <v>5685</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20129</v>
+        <v>21672</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02088338301777917</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009899824386369523</v>
+        <v>0.01031068161012813</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03650521626667455</v>
+        <v>0.03930343501662434</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1688,19 +1688,19 @@
         <v>8219</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3212</v>
+        <v>3939</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15142</v>
+        <v>16028</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01725249921663436</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006742626097326458</v>
+        <v>0.008268152792721733</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0317832391593707</v>
+        <v>0.0336428244530014</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>18</v>
@@ -1709,19 +1709,19 @@
         <v>19735</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11376</v>
+        <v>12004</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>31469</v>
+        <v>30555</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01920040738586326</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01106790142147464</v>
+        <v>0.01167862416080721</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03061722466912244</v>
+        <v>0.02972768180403939</v>
       </c>
     </row>
     <row r="18">
@@ -1738,19 +1738,19 @@
         <v>37264</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26021</v>
+        <v>26614</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>49879</v>
+        <v>52994</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06757940322705519</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0471904744738335</v>
+        <v>0.04826570748783326</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09045702155053678</v>
+        <v>0.09610744261244178</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>52</v>
@@ -1759,19 +1759,19 @@
         <v>55899</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>41768</v>
+        <v>42245</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>71218</v>
+        <v>70691</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1173324667331642</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08767263190792582</v>
+        <v>0.08867423941958109</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1494876149891344</v>
+        <v>0.1483821960835146</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>88</v>
@@ -1780,19 +1780,19 @@
         <v>93162</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>75411</v>
+        <v>74731</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>112862</v>
+        <v>113523</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09064078389353246</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07336971235496668</v>
+        <v>0.07270873968259106</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1098075603163306</v>
+        <v>0.1104498670170283</v>
       </c>
     </row>
     <row r="19">
@@ -1809,19 +1809,19 @@
         <v>355922</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>332686</v>
+        <v>331617</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>377322</v>
+        <v>377726</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6454793866874445</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6033387739600048</v>
+        <v>0.6014001523607656</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6842884276352197</v>
+        <v>0.6850207717821631</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>285</v>
@@ -1830,19 +1830,19 @@
         <v>297518</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>274785</v>
+        <v>275804</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>317176</v>
+        <v>319352</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.624497803472333</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5767807329407922</v>
+        <v>0.5789194746211337</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6657603853330987</v>
+        <v>0.670326462088718</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>625</v>
@@ -1851,19 +1851,19 @@
         <v>653441</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>621299</v>
+        <v>619664</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>682737</v>
+        <v>684958</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6357540704272781</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6044823193026669</v>
+        <v>0.6028920219673941</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6642570507265595</v>
+        <v>0.666418143253151</v>
       </c>
     </row>
     <row r="20">
@@ -1880,19 +1880,19 @@
         <v>146706</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>126298</v>
+        <v>125817</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>168005</v>
+        <v>168406</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2660578270677211</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2290461224834572</v>
+        <v>0.228174363278266</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3046841396863827</v>
+        <v>0.3054109422978108</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>104</v>
@@ -1901,19 +1901,19 @@
         <v>111230</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>93437</v>
+        <v>92765</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>132077</v>
+        <v>129793</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2334747443027376</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1961254262553694</v>
+        <v>0.1947158118461965</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2772332758553026</v>
+        <v>0.2724380943849917</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>245</v>
@@ -1922,19 +1922,19 @@
         <v>257937</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>228725</v>
+        <v>229524</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>284778</v>
+        <v>287430</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.250955020888995</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2225341882859288</v>
+        <v>0.2233118441947005</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2770694322506614</v>
+        <v>0.279650505630989</v>
       </c>
     </row>
     <row r="21">
@@ -2026,19 +2026,19 @@
         <v>7077</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2674</v>
+        <v>2968</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15021</v>
+        <v>14584</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002161905081307237</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0008166646247726581</v>
+        <v>0.0009065586963658777</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.004588268522653533</v>
+        <v>0.004454979999288447</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -2047,19 +2047,19 @@
         <v>19793</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12938</v>
+        <v>12587</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30587</v>
+        <v>30675</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005860521700331313</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003830866374814663</v>
+        <v>0.003726786818670324</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.00905631059861235</v>
+        <v>0.009082368937706645</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -2068,19 +2068,19 @@
         <v>26871</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16996</v>
+        <v>17481</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>39336</v>
+        <v>39303</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004040043712959173</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002555378684853699</v>
+        <v>0.002628236890700231</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.00591416630479321</v>
+        <v>0.005909256418626535</v>
       </c>
     </row>
     <row r="23">
@@ -2097,19 +2097,19 @@
         <v>69112</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>54894</v>
+        <v>55803</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>87793</v>
+        <v>88853</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02111120991312453</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01676798268222125</v>
+        <v>0.01704566053857414</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02681763191351597</v>
+        <v>0.02714128234647613</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>170</v>
@@ -2118,19 +2118,19 @@
         <v>174429</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>148359</v>
+        <v>150965</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>202634</v>
+        <v>201864</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05164593180873182</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04392694885906388</v>
+        <v>0.04469838593038228</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05999676867182607</v>
+        <v>0.0597687973207805</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>242</v>
@@ -2139,19 +2139,19 @@
         <v>243542</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>215708</v>
+        <v>216368</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>277615</v>
+        <v>276701</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0366165857620062</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03243181363100293</v>
+        <v>0.03253098273745782</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04173951405869041</v>
+        <v>0.0416020539310733</v>
       </c>
     </row>
     <row r="24">
@@ -2168,19 +2168,19 @@
         <v>446640</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>408626</v>
+        <v>410520</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>485775</v>
+        <v>487381</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1364320126002267</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1248199917268796</v>
+        <v>0.1253986901201058</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1483862731108169</v>
+        <v>0.148876826092907</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>745</v>
@@ -2189,19 +2189,19 @@
         <v>768676</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>721353</v>
+        <v>721075</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>821709</v>
+        <v>813174</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2275935102326523</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2135817567043677</v>
+        <v>0.2134994772452835</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2432955518848341</v>
+        <v>0.2407686221510101</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1190</v>
@@ -2210,19 +2210,19 @@
         <v>1215317</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1150701</v>
+        <v>1155914</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1281734</v>
+        <v>1274079</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1827233555693939</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1730083396207661</v>
+        <v>0.1737922036153975</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1927092962185324</v>
+        <v>0.1915583034087769</v>
       </c>
     </row>
     <row r="25">
@@ -2239,19 +2239,19 @@
         <v>2104206</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2047878</v>
+        <v>2046801</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2161538</v>
+        <v>2159411</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6427569381185039</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6255506943124797</v>
+        <v>0.6252218520772117</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.660269799894188</v>
+        <v>0.6596198496883169</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1901</v>
@@ -2260,19 +2260,19 @@
         <v>1937909</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1880601</v>
+        <v>1886699</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2002032</v>
+        <v>1996776</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5737856872076867</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5568175556578406</v>
+        <v>0.5586230988663824</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.592771692359494</v>
+        <v>0.5912153489550737</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3958</v>
@@ -2281,19 +2281,19 @@
         <v>4042115</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3952530</v>
+        <v>3962880</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4123402</v>
+        <v>4128296</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6077336891170584</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5942644537917181</v>
+        <v>0.5958206113076154</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6199552032271129</v>
+        <v>0.6206910747501133</v>
       </c>
     </row>
     <row r="26">
@@ -2310,19 +2310,19 @@
         <v>646684</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>602729</v>
+        <v>599384</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>692857</v>
+        <v>691922</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1975379342868376</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1841112639743026</v>
+        <v>0.183089666777679</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2116420454572028</v>
+        <v>0.2113563832694526</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>460</v>
@@ -2331,19 +2331,19 @@
         <v>476601</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>436268</v>
+        <v>433511</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>515130</v>
+        <v>514716</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1411143490505979</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1291724849003296</v>
+        <v>0.128355941128312</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1525222258066056</v>
+        <v>0.1523996351273197</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1090</v>
@@ -2352,19 +2352,19 @@
         <v>1123285</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1062233</v>
+        <v>1060583</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1179323</v>
+        <v>1186939</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1688863258385823</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1597071340229806</v>
+        <v>0.1594591264361934</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1773116731365504</v>
+        <v>0.1784568116987965</v>
       </c>
     </row>
     <row r="27">
@@ -2695,19 +2695,19 @@
         <v>7262</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3059</v>
+        <v>3052</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14467</v>
+        <v>13688</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00751296485712249</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003164603918100056</v>
+        <v>0.00315789978644944</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01496693442101745</v>
+        <v>0.01416129056381651</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -2716,19 +2716,19 @@
         <v>21772</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13942</v>
+        <v>13030</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33621</v>
+        <v>33364</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01632156224451452</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01045212568571426</v>
+        <v>0.009768475178253657</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02520477424422473</v>
+        <v>0.02501166790541613</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -2737,19 +2737,19 @@
         <v>29034</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20615</v>
+        <v>20199</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41685</v>
+        <v>42736</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01262053772140475</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008960961701362865</v>
+        <v>0.008780068664442852</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0181200473596138</v>
+        <v>0.01857666194938474</v>
       </c>
     </row>
     <row r="5">
@@ -2766,19 +2766,19 @@
         <v>56131</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>42371</v>
+        <v>42678</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>73212</v>
+        <v>73392</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05807195891385709</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04383562982269733</v>
+        <v>0.04415357179841137</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07574353492905908</v>
+        <v>0.07592966187263686</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>109</v>
@@ -2787,19 +2787,19 @@
         <v>116062</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>97271</v>
+        <v>94657</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>138191</v>
+        <v>136606</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08700800783326788</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07292065523998517</v>
+        <v>0.07096132957590136</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1035971817954062</v>
+        <v>0.10240925288949</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>159</v>
@@ -2808,19 +2808,19 @@
         <v>172193</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>145795</v>
+        <v>145502</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>199570</v>
+        <v>200536</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0748502235751375</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06337512053839339</v>
+        <v>0.06324796062744516</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.086750687421315</v>
+        <v>0.08717037313700285</v>
       </c>
     </row>
     <row r="6">
@@ -2837,19 +2837,19 @@
         <v>264631</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>238445</v>
+        <v>237763</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>296882</v>
+        <v>294561</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2737804560351381</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2466889016339167</v>
+        <v>0.2459837981102543</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.307146121895378</v>
+        <v>0.3047457687807362</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>461</v>
@@ -2858,19 +2858,19 @@
         <v>493360</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>459456</v>
+        <v>460195</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>527994</v>
+        <v>530392</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3698560792712287</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3444395925388365</v>
+        <v>0.3449934764455507</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3958201765898009</v>
+        <v>0.3976180337929537</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>701</v>
@@ -2879,19 +2879,19 @@
         <v>757990</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>711095</v>
+        <v>710270</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>803682</v>
+        <v>805153</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3294888991139457</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3091040905824686</v>
+        <v>0.3087455202963941</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3493505814443886</v>
+        <v>0.3499900088330345</v>
       </c>
     </row>
     <row r="7">
@@ -2908,19 +2908,19 @@
         <v>545535</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>510501</v>
+        <v>514069</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>577551</v>
+        <v>580717</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5643967666923758</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.528150998478909</v>
+        <v>0.5318424484084424</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5975199159315256</v>
+        <v>0.6007952109522298</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>583</v>
@@ -2929,19 +2929,19 @@
         <v>627936</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>589008</v>
+        <v>591642</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>662810</v>
+        <v>664319</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4707434879820845</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4415605555483109</v>
+        <v>0.4435349857007997</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4968876294581037</v>
+        <v>0.4980190651794479</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1096</v>
@@ -2950,19 +2950,19 @@
         <v>1173470</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1122366</v>
+        <v>1122324</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1224655</v>
+        <v>1220476</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5100928946960908</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4878785572462411</v>
+        <v>0.4878600575788078</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5323422275156329</v>
+        <v>0.5305258872058192</v>
       </c>
     </row>
     <row r="8">
@@ -2979,19 +2979,19 @@
         <v>93022</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>75656</v>
+        <v>75094</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>114558</v>
+        <v>110953</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09623785350150654</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07827144864936704</v>
+        <v>0.07769044063546408</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1185186770362464</v>
+        <v>0.1147888386763788</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>70</v>
@@ -3000,19 +3000,19 @@
         <v>74794</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>57742</v>
+        <v>58746</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>92862</v>
+        <v>93892</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05607086266890442</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04328738072756923</v>
+        <v>0.04404019472960375</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06961608634036774</v>
+        <v>0.07038811117169053</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>160</v>
@@ -3021,19 +3021,19 @@
         <v>167816</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>143968</v>
+        <v>145661</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>195231</v>
+        <v>198091</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07294744489342125</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0625809441749933</v>
+        <v>0.06331691481853632</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08486468420663457</v>
+        <v>0.08610783673518753</v>
       </c>
     </row>
     <row r="9">
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7305</v>
+        <v>7648</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001101624939623279</v>
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.003783827169200189</v>
+        <v>0.003961434872023167</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -3146,19 +3146,19 @@
         <v>6139</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2105</v>
+        <v>2119</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13349</v>
+        <v>13342</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003526093517255696</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001209128392966006</v>
+        <v>0.001217066833074052</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.007667854769396617</v>
+        <v>0.00766354064224129</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -3167,19 +3167,19 @@
         <v>8265</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3999</v>
+        <v>4064</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15388</v>
+        <v>14637</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002251260303468946</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00108909213963539</v>
+        <v>0.001106795370070432</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.004191207461283469</v>
+        <v>0.003986797507923749</v>
       </c>
     </row>
     <row r="11">
@@ -3196,19 +3196,19 @@
         <v>17639</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10542</v>
+        <v>10843</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>27307</v>
+        <v>27956</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.00913698062761145</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005460727590921791</v>
+        <v>0.005616647436207366</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01414510831495016</v>
+        <v>0.01448136146756441</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>34</v>
@@ -3217,19 +3217,19 @@
         <v>38704</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>27514</v>
+        <v>27207</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>54917</v>
+        <v>53023</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02223173939666344</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01580403603565769</v>
+        <v>0.01562784671446266</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03154476328224252</v>
+        <v>0.03045674349668084</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>51</v>
@@ -3238,19 +3238,19 @@
         <v>56343</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>42404</v>
+        <v>41921</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>72606</v>
+        <v>73958</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01534625795164726</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01154962876567473</v>
+        <v>0.0114180948724184</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01977591371767397</v>
+        <v>0.02014404064344997</v>
       </c>
     </row>
     <row r="12">
@@ -3267,19 +3267,19 @@
         <v>183320</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>158431</v>
+        <v>157453</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>211239</v>
+        <v>211697</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09495922191712187</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08206689912567049</v>
+        <v>0.08156009683725178</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1094211457283799</v>
+        <v>0.1096583453605436</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>215</v>
@@ -3288,19 +3288,19 @@
         <v>234167</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>206350</v>
+        <v>203813</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>265864</v>
+        <v>265444</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1345076603896615</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1185288408250581</v>
+        <v>0.1170715346395703</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1527145069425405</v>
+        <v>0.1524733310197723</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>383</v>
@@ -3309,19 +3309,19 @@
         <v>417488</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>381517</v>
+        <v>381896</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>456654</v>
+        <v>461350</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1137123143978277</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1039150216654624</v>
+        <v>0.1040181997442201</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1243801711089888</v>
+        <v>0.1256591877914806</v>
       </c>
     </row>
     <row r="13">
@@ -3338,19 +3338,19 @@
         <v>1254949</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1211529</v>
+        <v>1207432</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1300421</v>
+        <v>1290298</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6500596472229995</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6275678865688015</v>
+        <v>0.6254457532398838</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6736139495054885</v>
+        <v>0.6683703156430399</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1085</v>
@@ -3359,19 +3359,19 @@
         <v>1166415</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1128633</v>
+        <v>1125034</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1208799</v>
+        <v>1204148</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.669998150897834</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6482959283432901</v>
+        <v>0.6462284468830871</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6943437308480565</v>
+        <v>0.6916721015735922</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2263</v>
@@ -3380,19 +3380,19 @@
         <v>2421364</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2358895</v>
+        <v>2363139</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2474669</v>
+        <v>2476556</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6595140939162788</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6424990801955648</v>
+        <v>0.6436550309932574</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6740327070237554</v>
+        <v>0.6745467418644013</v>
       </c>
     </row>
     <row r="14">
@@ -3409,19 +3409,19 @@
         <v>472479</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>433039</v>
+        <v>434227</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>512131</v>
+        <v>514621</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.244742525292644</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2243127315491001</v>
+        <v>0.2249281672914531</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2652819975011644</v>
+        <v>0.2665722683611181</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>278</v>
@@ -3430,19 +3430,19 @@
         <v>295498</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>266174</v>
+        <v>267205</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>330454</v>
+        <v>330088</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1697363557985854</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1528923337421497</v>
+        <v>0.1534845583660653</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1898154675761472</v>
+        <v>0.189605276216899</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>737</v>
@@ -3451,19 +3451,19 @@
         <v>767977</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>713894</v>
+        <v>726934</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>815119</v>
+        <v>823870</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2091760734307773</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1944454622138607</v>
+        <v>0.1979971180519907</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2220163155844629</v>
+        <v>0.2243997737826893</v>
       </c>
     </row>
     <row r="15">
@@ -3602,19 +3602,19 @@
         <v>5284</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1002</v>
+        <v>1025</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15825</v>
+        <v>14889</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01104714631917786</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002095494696531752</v>
+        <v>0.002142334452148009</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03308307045296082</v>
+        <v>0.03112587711979522</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -3623,19 +3623,19 @@
         <v>8137</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3308</v>
+        <v>3098</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16581</v>
+        <v>16446</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01783649791782697</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.007250979310722647</v>
+        <v>0.006791689651708475</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03634490889802118</v>
+        <v>0.03604909631033154</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -3644,19 +3644,19 @@
         <v>13421</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7218</v>
+        <v>6405</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>25895</v>
+        <v>24625</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0143614273977518</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007723236714766563</v>
+        <v>0.006853716758049411</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0277089955346467</v>
+        <v>0.02634963250947105</v>
       </c>
     </row>
     <row r="18">
@@ -3673,19 +3673,19 @@
         <v>33540</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21834</v>
+        <v>21610</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>49083</v>
+        <v>47551</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07011843942192426</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04564597142410252</v>
+        <v>0.045177909505034</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.102612220694883</v>
+        <v>0.09940887906579288</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>28</v>
@@ -3694,19 +3694,19 @@
         <v>32500</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>21297</v>
+        <v>21400</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>46401</v>
+        <v>45747</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07124015728611439</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04668372674774578</v>
+        <v>0.04690950294893138</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.101710476363469</v>
+        <v>0.1002786894754896</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>55</v>
@@ -3715,19 +3715,19 @@
         <v>66040</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>50669</v>
+        <v>49888</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>85533</v>
+        <v>86352</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07066601576095544</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05421880459228664</v>
+        <v>0.05338269591709597</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09152439359443607</v>
+        <v>0.09240099262113505</v>
       </c>
     </row>
     <row r="19">
@@ -3744,19 +3744,19 @@
         <v>282459</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>257878</v>
+        <v>256950</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>305128</v>
+        <v>304168</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5905059722303236</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.539117073479161</v>
+        <v>0.5371765502802891</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6378965992203813</v>
+        <v>0.6358901791778092</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>298</v>
@@ -3765,19 +3765,19 @@
         <v>329447</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>308126</v>
+        <v>308061</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>349016</v>
+        <v>349670</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7221511968390856</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6754163920692137</v>
+        <v>0.6752736867153282</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7650465976701358</v>
+        <v>0.7664816334582815</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>561</v>
@@ -3786,19 +3786,19 @@
         <v>611906</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>581076</v>
+        <v>578825</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>642232</v>
+        <v>642991</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.654769734485949</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.621780181796926</v>
+        <v>0.6193713911806161</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6872196592250187</v>
+        <v>0.6880321450261843</v>
       </c>
     </row>
     <row r="20">
@@ -3815,19 +3815,19 @@
         <v>157051</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>134845</v>
+        <v>135444</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>180849</v>
+        <v>180557</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3283284420285742</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2819048881941508</v>
+        <v>0.2831574435590496</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3780817835155863</v>
+        <v>0.3774708778507896</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>77</v>
@@ -3836,19 +3836,19 @@
         <v>86118</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>70959</v>
+        <v>69455</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>107220</v>
+        <v>105522</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.188772147956973</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1555421283929194</v>
+        <v>0.1522465967649015</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2350275379099195</v>
+        <v>0.2313043393616578</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>219</v>
@@ -3857,19 +3857,19 @@
         <v>243169</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>214961</v>
+        <v>213091</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>272152</v>
+        <v>271325</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2602028223553438</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2300184478953574</v>
+        <v>0.2280183001171877</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2912163702585303</v>
+        <v>0.2903312450845477</v>
       </c>
     </row>
     <row r="21">
@@ -3961,19 +3961,19 @@
         <v>9389</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4829</v>
+        <v>4264</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17542</v>
+        <v>16845</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002781450767254109</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001430636890243382</v>
+        <v>0.001263249894180451</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.00519710326336228</v>
+        <v>0.004990351046090196</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -3982,19 +3982,19 @@
         <v>27910</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17898</v>
+        <v>18338</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>39215</v>
+        <v>40285</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.007904271409993868</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005068714089646642</v>
+        <v>0.005193228571269879</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01110565193471364</v>
+        <v>0.01140878195997462</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -4003,19 +4003,19 @@
         <v>37299</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>26328</v>
+        <v>25931</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>50986</v>
+        <v>51347</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.005400575818968825</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003812020102199459</v>
+        <v>0.003754622398205787</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.007382379868923414</v>
+        <v>0.007434670142640121</v>
       </c>
     </row>
     <row r="23">
@@ -4032,19 +4032,19 @@
         <v>79055</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>62475</v>
+        <v>60235</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>98549</v>
+        <v>99568</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02342058918654771</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01850879732226501</v>
+        <v>0.0178450308012081</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02919602155439946</v>
+        <v>0.02949777067373091</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>150</v>
@@ -4053,19 +4053,19 @@
         <v>162903</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>136148</v>
+        <v>138543</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>189351</v>
+        <v>188377</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04613439443746638</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0385574521419554</v>
+        <v>0.03923555966507928</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05362445855919135</v>
+        <v>0.05334873801969541</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>220</v>
@@ -4074,19 +4074,19 @@
         <v>241957</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>210125</v>
+        <v>213832</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>275127</v>
+        <v>276158</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03503339012205618</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03042430863919826</v>
+        <v>0.03096100974747621</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0398361494642331</v>
+        <v>0.03998535985601522</v>
       </c>
     </row>
     <row r="24">
@@ -4103,19 +4103,19 @@
         <v>481491</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>440668</v>
+        <v>439540</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>527595</v>
+        <v>525285</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1426458911321059</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1305517927985159</v>
+        <v>0.1302175638286477</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1563047012047268</v>
+        <v>0.1556201380852417</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>704</v>
@@ -4124,19 +4124,19 @@
         <v>760027</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>706962</v>
+        <v>710972</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>812662</v>
+        <v>811201</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2152411580882833</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2002132203732866</v>
+        <v>0.2013487360832542</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2301474326027872</v>
+        <v>0.229733772704254</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1139</v>
@@ -4145,19 +4145,19 @@
         <v>1241518</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1176990</v>
+        <v>1179177</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1307373</v>
+        <v>1309598</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1797613975260901</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1704183420637119</v>
+        <v>0.1707349129458937</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1892967105865428</v>
+        <v>0.189618767928173</v>
       </c>
     </row>
     <row r="25">
@@ -4174,19 +4174,19 @@
         <v>2082944</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2022003</v>
+        <v>2026596</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2147772</v>
+        <v>2144012</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6170900129231496</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5990359878013682</v>
+        <v>0.6003964847046898</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6362959963981148</v>
+        <v>0.6351821701981082</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1966</v>
@@ -4195,19 +4195,19 @@
         <v>2123798</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2057539</v>
+        <v>2063932</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2178475</v>
+        <v>2184722</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6014638206043079</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5826993321774716</v>
+        <v>0.5845098070157333</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6169485985703106</v>
+        <v>0.6187176501017495</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3920</v>
@@ -4216,19 +4216,19 @@
         <v>4206741</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4118673</v>
+        <v>4122849</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4285973</v>
+        <v>4289794</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6091008689301438</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5963493583645184</v>
+        <v>0.5969539185996565</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6205729739117685</v>
+        <v>0.6211262090838534</v>
       </c>
     </row>
     <row r="26">
@@ -4245,19 +4245,19 @@
         <v>722551</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>671024</v>
+        <v>676828</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>767382</v>
+        <v>771942</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2140620559909427</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1987967548204387</v>
+        <v>0.200516043333711</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2273434944270653</v>
+        <v>0.2286945327870997</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>425</v>
@@ -4266,19 +4266,19 @@
         <v>456410</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>419255</v>
+        <v>414778</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>498956</v>
+        <v>495434</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1292563554599486</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1187339630730699</v>
+        <v>0.1174660168885199</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1413052971031383</v>
+        <v>0.1403079301364199</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1116</v>
@@ -4287,19 +4287,19 @@
         <v>1178962</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1122664</v>
+        <v>1105211</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1243209</v>
+        <v>1243230</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1707037676027411</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1625522979974457</v>
+        <v>0.1600253058497209</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1800062861313725</v>
+        <v>0.1800092359792136</v>
       </c>
     </row>
     <row r="27">
@@ -4630,19 +4630,19 @@
         <v>4350</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1638</v>
+        <v>1675</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9583</v>
+        <v>9233</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005834421402432277</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002196793699169012</v>
+        <v>0.002246706604229321</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01285389158965826</v>
+        <v>0.01238384863311667</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -4651,19 +4651,19 @@
         <v>13543</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6877</v>
+        <v>7032</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23214</v>
+        <v>22685</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01369151829637859</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006951947413507733</v>
+        <v>0.007108628694217526</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02346766294263747</v>
+        <v>0.02293331919494263</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -4672,19 +4672,19 @@
         <v>17893</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10508</v>
+        <v>9916</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28037</v>
+        <v>27398</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01031474034236141</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006057361165641388</v>
+        <v>0.00571647854868061</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01616207400377472</v>
+        <v>0.01579408649371863</v>
       </c>
     </row>
     <row r="5">
@@ -4701,19 +4701,19 @@
         <v>39359</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28838</v>
+        <v>27788</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>52221</v>
+        <v>52484</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05279323928549198</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03868140981058095</v>
+        <v>0.03727219160714173</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0700443673752974</v>
+        <v>0.07039783363544544</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>75</v>
@@ -4722,19 +4722,19 @@
         <v>87061</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>71239</v>
+        <v>70633</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>108586</v>
+        <v>108974</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08801339567886182</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07201824639853609</v>
+        <v>0.07140559328411038</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1097732829716204</v>
+        <v>0.1101657528121176</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>116</v>
@@ -4743,19 +4743,19 @@
         <v>126421</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>106986</v>
+        <v>105265</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>150937</v>
+        <v>148696</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07287667924892936</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06167355266488463</v>
+        <v>0.06068132379082708</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08700942587577734</v>
+        <v>0.08571751868139089</v>
       </c>
     </row>
     <row r="6">
@@ -4772,19 +4772,19 @@
         <v>202336</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>180338</v>
+        <v>178656</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>225808</v>
+        <v>226602</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2713954637386442</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2418892469684469</v>
+        <v>0.2396342627978183</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3028796644232736</v>
+        <v>0.3039446248903961</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>323</v>
@@ -4793,19 +4793,19 @@
         <v>373367</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>340417</v>
+        <v>340012</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>406439</v>
+        <v>407740</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3774505013058107</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3441399624032332</v>
+        <v>0.3437309410233881</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4108835132858392</v>
+        <v>0.4121996045111072</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>533</v>
@@ -4814,19 +4814,19 @@
         <v>575703</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>532711</v>
+        <v>535005</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>613764</v>
+        <v>615626</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3318707766819236</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3070876395660691</v>
+        <v>0.3084101709571487</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3538116088648228</v>
+        <v>0.3548848947770053</v>
       </c>
     </row>
     <row r="7">
@@ -4843,19 +4843,19 @@
         <v>406232</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>378930</v>
+        <v>379098</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>431763</v>
+        <v>432095</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5448837967325972</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.508263270610777</v>
+        <v>0.5084892776454792</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5791291690807362</v>
+        <v>0.5795749789746264</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>407</v>
@@ -4864,19 +4864,19 @@
         <v>439662</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>408017</v>
+        <v>405287</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>473408</v>
+        <v>472842</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4444704344604412</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4124789399773491</v>
+        <v>0.4097189559934211</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4785851249963249</v>
+        <v>0.4780128970796122</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>815</v>
@@ -4885,19 +4885,19 @@
         <v>845894</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>807110</v>
+        <v>805272</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>889897</v>
+        <v>889555</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4876255122946733</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4652682118556008</v>
+        <v>0.464208355503389</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5129918178489762</v>
+        <v>0.5127947052956306</v>
       </c>
     </row>
     <row r="8">
@@ -4914,19 +4914,19 @@
         <v>93262</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>75366</v>
+        <v>76288</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>113475</v>
+        <v>113463</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1250930788408343</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1010900838562835</v>
+        <v>0.1023262928296408</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1522049854604061</v>
+        <v>0.1521900928852941</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>71</v>
@@ -4935,19 +4935,19 @@
         <v>75548</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>59544</v>
+        <v>60450</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>94374</v>
+        <v>93687</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07637415025850774</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06019563240743656</v>
+        <v>0.06111097439581557</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09540601576934724</v>
+        <v>0.09471163833837555</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>160</v>
@@ -4956,19 +4956,19 @@
         <v>168810</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>143663</v>
+        <v>144992</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>194518</v>
+        <v>194086</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09731229143211229</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08281604317643906</v>
+        <v>0.0835826464822282</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1121321758453199</v>
+        <v>0.1118832320064455</v>
       </c>
     </row>
     <row r="9">
@@ -5060,19 +5060,19 @@
         <v>4720</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1783</v>
+        <v>939</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11983</v>
+        <v>12959</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00228351059085494</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0008625229304852278</v>
+        <v>0.0004541681488247188</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.005797425116768682</v>
+        <v>0.006269892150171377</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -5081,19 +5081,19 @@
         <v>7016</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3076</v>
+        <v>3094</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13669</v>
+        <v>14014</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003562728411120174</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001562138216052389</v>
+        <v>0.001570825951369805</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.00694054619966015</v>
+        <v>0.007115922500282287</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -5102,19 +5102,19 @@
         <v>11736</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6000</v>
+        <v>5808</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22173</v>
+        <v>20291</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002907666445908308</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001486417811464803</v>
+        <v>0.001438896007004134</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005493322326857238</v>
+        <v>0.005027135259988941</v>
       </c>
     </row>
     <row r="11">
@@ -5131,19 +5131,19 @@
         <v>27941</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18233</v>
+        <v>18731</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39955</v>
+        <v>41432</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01351820211258466</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008821549229468161</v>
+        <v>0.009062389531180264</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01933089274406358</v>
+        <v>0.02004527401148259</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>50</v>
@@ -5152,19 +5152,19 @@
         <v>56923</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>43447</v>
+        <v>42705</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>74021</v>
+        <v>73984</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02890413674223874</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02206128061241592</v>
+        <v>0.02168461609050918</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0375860183659625</v>
+        <v>0.03756700681771676</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>76</v>
@@ -5173,19 +5173,19 @@
         <v>84864</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>66048</v>
+        <v>65873</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>105400</v>
+        <v>103797</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02102530608849381</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01636345850332501</v>
+        <v>0.01632032192313657</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02611299779886518</v>
+        <v>0.02571596287297249</v>
       </c>
     </row>
     <row r="12">
@@ -5202,19 +5202,19 @@
         <v>214533</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>187226</v>
+        <v>187883</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>243425</v>
+        <v>242552</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1037946433459663</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0905831226564955</v>
+        <v>0.09090080960402266</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1177731457285185</v>
+        <v>0.1173504738367404</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>255</v>
@@ -5223,19 +5223,19 @@
         <v>287047</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>251828</v>
+        <v>256630</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>322050</v>
+        <v>321545</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1457548987321255</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1278716666253615</v>
+        <v>0.1303099807040007</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1635284681083815</v>
+        <v>0.1632717277295763</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>456</v>
@@ -5244,19 +5244,19 @@
         <v>501581</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>461424</v>
+        <v>460301</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>546928</v>
+        <v>547201</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1242678877488435</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1143189686248061</v>
+        <v>0.1140408654295646</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1355029327432447</v>
+        <v>0.135570476661569</v>
       </c>
     </row>
     <row r="13">
@@ -5273,19 +5273,19 @@
         <v>1235130</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1187774</v>
+        <v>1191479</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1284527</v>
+        <v>1279009</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5975758299870183</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5746641937574072</v>
+        <v>0.576456633875536</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6214748365374397</v>
+        <v>0.6188052776955085</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1139</v>
@@ -5294,19 +5294,19 @@
         <v>1183575</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1138805</v>
+        <v>1137644</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1231362</v>
+        <v>1225699</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6009871895110382</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5782546115047333</v>
+        <v>0.5776646613551585</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6252525304362883</v>
+        <v>0.62237664344606</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2298</v>
@@ -5315,19 +5315,19 @@
         <v>2418705</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2355755</v>
+        <v>2349836</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2480150</v>
+        <v>2479201</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5992403002491412</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5836443995313966</v>
+        <v>0.5821777981396622</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6144634701918675</v>
+        <v>0.6142283884035108</v>
       </c>
     </row>
     <row r="14">
@@ -5344,19 +5344,19 @@
         <v>584577</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>539949</v>
+        <v>543474</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>627862</v>
+        <v>627996</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2828278139635758</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.261235934646473</v>
+        <v>0.2629413355239806</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3037697060361964</v>
+        <v>0.3038348215599911</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>438</v>
@@ -5365,19 +5365,19 @@
         <v>434822</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>397496</v>
+        <v>400679</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>471550</v>
+        <v>474473</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2207910466034773</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2018379037015599</v>
+        <v>0.2034539997739545</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2394405404231921</v>
+        <v>0.2409243596006257</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>991</v>
@@ -5386,19 +5386,19 @@
         <v>1019399</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>962220</v>
+        <v>962592</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1076062</v>
+        <v>1075905</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2525588394676133</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2383924017577547</v>
+        <v>0.2384847126804686</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2665971740419259</v>
+        <v>0.2665581778717642</v>
       </c>
     </row>
     <row r="15">
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4580</v>
+        <v>4618</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001689700141516494</v>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.008403908513154312</v>
+        <v>0.008474418016819725</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5390</v>
+        <v>6097</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00199319481806732</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.009921847929734712</v>
+        <v>0.01122215217208459</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6251</v>
+        <v>6512</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001841210747448289</v>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.005744164005670993</v>
+        <v>0.005983750275404538</v>
       </c>
     </row>
     <row r="17">
@@ -5561,19 +5561,19 @@
         <v>6642</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2786</v>
+        <v>2693</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14429</v>
+        <v>14672</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01218853699561429</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.005111490736644194</v>
+        <v>0.004942380935293209</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0264769498022921</v>
+        <v>0.02692208483449894</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -5582,19 +5582,19 @@
         <v>7330</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2577</v>
+        <v>2986</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15163</v>
+        <v>16851</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01349162282022635</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.004742660962535361</v>
+        <v>0.005496098768501699</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02791102434051059</v>
+        <v>0.0310180470465431</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>12</v>
@@ -5603,19 +5603,19 @@
         <v>13972</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8019</v>
+        <v>7693</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>25027</v>
+        <v>24588</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01283906347308627</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007368420803346746</v>
+        <v>0.007069026663090108</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02299772667752072</v>
+        <v>0.02259435801964285</v>
       </c>
     </row>
     <row r="18">
@@ -5632,19 +5632,19 @@
         <v>37743</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26017</v>
+        <v>26587</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>51949</v>
+        <v>51234</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0692569333336859</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04774051501509959</v>
+        <v>0.04878597884285083</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09532389572436067</v>
+        <v>0.0940124758955191</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>44</v>
@@ -5653,19 +5653,19 @@
         <v>47881</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>36086</v>
+        <v>34648</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>63317</v>
+        <v>62120</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08813515160805077</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06642418963792548</v>
+        <v>0.06377626702041442</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1165473475545132</v>
+        <v>0.1143436066930587</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>77</v>
@@ -5674,19 +5674,19 @@
         <v>85624</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>68670</v>
+        <v>67258</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>105905</v>
+        <v>105099</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07868131705655064</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06310178733168874</v>
+        <v>0.06180394024184491</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09731717222784464</v>
+        <v>0.09657722814637069</v>
       </c>
     </row>
     <row r="19">
@@ -5703,19 +5703,19 @@
         <v>326401</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>301678</v>
+        <v>300049</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>352883</v>
+        <v>349445</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5989343999065709</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5535686610622796</v>
+        <v>0.5505793907016664</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6475278327364362</v>
+        <v>0.641219157968948</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>329</v>
@@ -5724,19 +5724,19 @@
         <v>345103</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>321198</v>
+        <v>323361</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>367043</v>
+        <v>368140</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6352304466666887</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.591228908779549</v>
+        <v>0.5952099158750259</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6756154111976196</v>
+        <v>0.6776353864490373</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>626</v>
@@ -5745,19 +5745,19 @@
         <v>671504</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>637217</v>
+        <v>635464</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>703824</v>
+        <v>703012</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6170541115932873</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5855471605222903</v>
+        <v>0.5839358682934651</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6467531312782639</v>
+        <v>0.646007255811253</v>
       </c>
     </row>
     <row r="20">
@@ -5774,19 +5774,19 @@
         <v>173263</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>150389</v>
+        <v>151497</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>198240</v>
+        <v>196698</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3179304296226123</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2759576628958797</v>
+        <v>0.2779922785367606</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3637638290607973</v>
+        <v>0.3609340804955352</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>140</v>
@@ -5795,19 +5795,19 @@
         <v>141875</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>121934</v>
+        <v>121917</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>161977</v>
+        <v>161386</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2611495840869669</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2244429520551836</v>
+        <v>0.224412267813128</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2981513893506132</v>
+        <v>0.2970629146490447</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>302</v>
@@ -5816,19 +5816,19 @@
         <v>315138</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>285066</v>
+        <v>286088</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>347889</v>
+        <v>347413</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2895842971296275</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2619509309547189</v>
+        <v>0.262889597118045</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.31967972188982</v>
+        <v>0.3192426403070932</v>
       </c>
     </row>
     <row r="21">
@@ -5920,19 +5920,19 @@
         <v>9990</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5093</v>
+        <v>5196</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18328</v>
+        <v>18658</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002975630513974058</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001517040608411587</v>
+        <v>0.001547650692213395</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0054589138636656</v>
+        <v>0.005557185490875378</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -5941,19 +5941,19 @@
         <v>21643</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13251</v>
+        <v>13346</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33933</v>
+        <v>33820</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006180362695747461</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00378388069010505</v>
+        <v>0.003811002217235395</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.009690038637437495</v>
+        <v>0.009657827316785916</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>29</v>
@@ -5962,19 +5962,19 @@
         <v>31633</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>21223</v>
+        <v>21000</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>43891</v>
+        <v>43994</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004611736181878996</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00309399865498122</v>
+        <v>0.003061571504694463</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.006398781373384858</v>
+        <v>0.00641381805413825</v>
       </c>
     </row>
     <row r="23">
@@ -5991,19 +5991,19 @@
         <v>73943</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>58243</v>
+        <v>57479</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>92866</v>
+        <v>92934</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.022023689705797</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01734766335308878</v>
+        <v>0.01711993451188949</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02765994918484888</v>
+        <v>0.02768028737194984</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>131</v>
@@ -6012,19 +6012,19 @@
         <v>151314</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>129253</v>
+        <v>126160</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>176555</v>
+        <v>178407</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04320994285671501</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03691011756156698</v>
+        <v>0.0360267808693332</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0504178004124771</v>
+        <v>0.05094672054480181</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>204</v>
@@ -6033,19 +6033,19 @@
         <v>225257</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>194924</v>
+        <v>195080</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>257540</v>
+        <v>256309</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03283986618975653</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02841776057337238</v>
+        <v>0.02844045921465603</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03754638900474439</v>
+        <v>0.03736687678083352</v>
       </c>
     </row>
     <row r="24">
@@ -6062,19 +6062,19 @@
         <v>454612</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>418823</v>
+        <v>414171</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>499658</v>
+        <v>494952</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1354055508864768</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.124745802097169</v>
+        <v>0.1233601976222957</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1488223765451771</v>
+        <v>0.1474209231319976</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>622</v>
@@ -6083,19 +6083,19 @@
         <v>708296</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>660215</v>
+        <v>660907</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>757933</v>
+        <v>760693</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2022640454026155</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1885338278547859</v>
+        <v>0.1887315757979217</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2164386264570396</v>
+        <v>0.2172267472268179</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1066</v>
@@ -6104,19 +6104,19 @@
         <v>1162908</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1100376</v>
+        <v>1101659</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1225067</v>
+        <v>1225592</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1695386876420462</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1604223043743259</v>
+        <v>0.1606093006462136</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.178600758260415</v>
+        <v>0.1786773749268228</v>
       </c>
     </row>
     <row r="25">
@@ -6133,19 +6133,19 @@
         <v>1967763</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1905803</v>
+        <v>1905622</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2026584</v>
+        <v>2025185</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5860956894253641</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5676409053036171</v>
+        <v>0.5675870153016193</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6036154989204204</v>
+        <v>0.6031986562389927</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1875</v>
@@ -6154,19 +6154,19 @@
         <v>1968340</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1905020</v>
+        <v>1908359</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2027168</v>
+        <v>2031424</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5620875820569468</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5440058568367943</v>
+        <v>0.544959353437749</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5788868159654846</v>
+        <v>0.5801021720319015</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3739</v>
@@ -6175,19 +6175,19 @@
         <v>3936103</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3853399</v>
+        <v>3854914</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4017966</v>
+        <v>4021365</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.573838877213555</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5617815467461514</v>
+        <v>0.5620024282520908</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5857735163286319</v>
+        <v>0.586269061896169</v>
       </c>
     </row>
     <row r="26">
@@ -6204,19 +6204,19 @@
         <v>851101</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>799110</v>
+        <v>801803</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>901753</v>
+        <v>904274</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2534994394683882</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2380140264975596</v>
+        <v>0.2388160680044498</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2685860144652896</v>
+        <v>0.2693367320815766</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>649</v>
@@ -6225,19 +6225,19 @@
         <v>652246</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>608099</v>
+        <v>609193</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>697860</v>
+        <v>696309</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1862580669879752</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1736514890797288</v>
+        <v>0.1739637311094807</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1992838750758789</v>
+        <v>0.1988411214178625</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1453</v>
@@ -6246,19 +6246,19 @@
         <v>1503347</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1435846</v>
+        <v>1434507</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1574683</v>
+        <v>1571497</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2191708327727633</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2093298856160365</v>
+        <v>0.209134755802494</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2295707960725476</v>
+        <v>0.2291062846071129</v>
       </c>
     </row>
     <row r="27">
@@ -6589,19 +6589,19 @@
         <v>18888</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12248</v>
+        <v>11714</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28725</v>
+        <v>28207</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03264864377807732</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02117128241639682</v>
+        <v>0.02024816579185376</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04965110462177384</v>
+        <v>0.0487571169481851</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>61</v>
@@ -6610,19 +6610,19 @@
         <v>33367</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25531</v>
+        <v>26222</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42067</v>
+        <v>43330</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.04059056592285076</v>
+        <v>0.04059056592285077</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0310584113675334</v>
+        <v>0.03189920597307613</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05117422791193414</v>
+        <v>0.05271079936095979</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>86</v>
@@ -6631,19 +6631,19 @@
         <v>52255</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41814</v>
+        <v>42541</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65985</v>
+        <v>66538</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0373100126538404</v>
+        <v>0.03731001265384039</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02985513859459302</v>
+        <v>0.03037409218292907</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04711306230137713</v>
+        <v>0.04750800295610287</v>
       </c>
     </row>
     <row r="5">
@@ -6660,19 +6660,19 @@
         <v>59164</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>47822</v>
+        <v>47671</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>71534</v>
+        <v>72830</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1022663016595334</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08266180026234654</v>
+        <v>0.08240067456847509</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1236484495915649</v>
+        <v>0.1258881326597827</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>241</v>
@@ -6681,19 +6681,19 @@
         <v>128285</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>113789</v>
+        <v>112777</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>144036</v>
+        <v>144153</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1560575372424647</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1384231716061555</v>
+        <v>0.1371918779157194</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1752184215856136</v>
+        <v>0.1753603774389881</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>329</v>
@@ -6702,19 +6702,19 @@
         <v>187449</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>167943</v>
+        <v>166833</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>205476</v>
+        <v>208502</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1338381033927104</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1199108358074408</v>
+        <v>0.119118089999271</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1467093406092042</v>
+        <v>0.1488698126041823</v>
       </c>
     </row>
     <row r="6">
@@ -6731,19 +6731,19 @@
         <v>147739</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>128678</v>
+        <v>129996</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>167203</v>
+        <v>168650</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2553693458548728</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2224229947678317</v>
+        <v>0.2247004866483339</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.289013170757035</v>
+        <v>0.2915154289772479</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>544</v>
@@ -6752,19 +6752,19 @@
         <v>302174</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>281502</v>
+        <v>282109</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>323330</v>
+        <v>323258</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3675909511001992</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3424443482278288</v>
+        <v>0.3431820586882505</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.393327870584712</v>
+        <v>0.3932393446070746</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>736</v>
@@ -6773,19 +6773,19 @@
         <v>449912</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>422935</v>
+        <v>421694</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>480747</v>
+        <v>478282</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3212358059312902</v>
+        <v>0.3212358059312901</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3019742720303043</v>
+        <v>0.3010878699111807</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3432514322336563</v>
+        <v>0.3414913580443045</v>
       </c>
     </row>
     <row r="7">
@@ -6802,19 +6802,19 @@
         <v>292830</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>268220</v>
+        <v>269555</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>316744</v>
+        <v>316319</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5061631154702557</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4636244055931238</v>
+        <v>0.4659317087171557</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5474990539180822</v>
+        <v>0.5467648617931279</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>544</v>
@@ -6823,19 +6823,19 @@
         <v>333275</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>311550</v>
+        <v>309177</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>356266</v>
+        <v>354690</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.405425742271131</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3789968269395967</v>
+        <v>0.376109757495823</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4333939941505321</v>
+        <v>0.4314759254112302</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>881</v>
@@ -6844,19 +6844,19 @@
         <v>626105</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>592728</v>
+        <v>594149</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>658201</v>
+        <v>657585</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4470371195845426</v>
+        <v>0.4470371195845425</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4232055992398355</v>
+        <v>0.424220085891074</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.469953359623973</v>
+        <v>0.4695135386095277</v>
       </c>
     </row>
     <row r="8">
@@ -6873,19 +6873,19 @@
         <v>59908</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45235</v>
+        <v>44682</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>81154</v>
+        <v>78633</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1035525932372609</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07818976099387709</v>
+        <v>0.0772344605589884</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1402771935005408</v>
+        <v>0.1359196086832125</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>37</v>
@@ -6894,19 +6894,19 @@
         <v>24937</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17469</v>
+        <v>17228</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>36084</v>
+        <v>35070</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03033520346335422</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02125062117569136</v>
+        <v>0.02095739104185366</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04389559972580936</v>
+        <v>0.04266184628239173</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>86</v>
@@ -6915,19 +6915,19 @@
         <v>84845</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>65623</v>
+        <v>66050</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>106565</v>
+        <v>107413</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.06057895843761654</v>
+        <v>0.06057895843761653</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04685475651889382</v>
+        <v>0.04715933682603163</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07608692345605231</v>
+        <v>0.07669245954487634</v>
       </c>
     </row>
     <row r="9">
@@ -7019,19 +7019,19 @@
         <v>17436</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10424</v>
+        <v>9844</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27655</v>
+        <v>26958</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007816679646326881</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004673057520736289</v>
+        <v>0.004413236341123554</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01239816076526463</v>
+        <v>0.01208571386317244</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -7040,19 +7040,19 @@
         <v>12734</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7624</v>
+        <v>8045</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19700</v>
+        <v>20043</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.005864650468277127</v>
+        <v>0.005864650468277124</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003511110785626518</v>
+        <v>0.003705198872672586</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.009072373153594038</v>
+        <v>0.009230408211759904</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -7061,19 +7061,19 @@
         <v>30170</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21357</v>
+        <v>21556</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>43689</v>
+        <v>41848</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.006853785331873344</v>
+        <v>0.006853785331873345</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004851736654918145</v>
+        <v>0.004896862361541046</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.00992479302969182</v>
+        <v>0.009506632599072669</v>
       </c>
     </row>
     <row r="11">
@@ -7090,19 +7090,19 @@
         <v>44230</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>34248</v>
+        <v>33758</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>59676</v>
+        <v>59882</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0198290015281815</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01535395163141405</v>
+        <v>0.01513447600124669</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02675366159248662</v>
+        <v>0.02684602773906238</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>100</v>
@@ -7111,19 +7111,19 @@
         <v>62157</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50809</v>
+        <v>50181</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>76067</v>
+        <v>75079</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02862530374605388</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02339947658002899</v>
+        <v>0.0231098688254176</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03503144680004942</v>
+        <v>0.03457639780783026</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>154</v>
@@ -7132,19 +7132,19 @@
         <v>106387</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>90247</v>
+        <v>89543</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>125709</v>
+        <v>124426</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02416802959653574</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02050144808709464</v>
+        <v>0.02034153243970455</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02855742571941583</v>
+        <v>0.02826613788132631</v>
       </c>
     </row>
     <row r="12">
@@ -7161,19 +7161,19 @@
         <v>284305</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>255708</v>
+        <v>256774</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>324687</v>
+        <v>321193</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1274589039385657</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1146380539648158</v>
+        <v>0.1151159584941132</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1455626165627408</v>
+        <v>0.1439962866503137</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>587</v>
@@ -7182,19 +7182,19 @@
         <v>382383</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>351067</v>
+        <v>349926</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>413448</v>
+        <v>415181</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.1761002930066069</v>
+        <v>0.1761002930066068</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.161678258295497</v>
+        <v>0.1611527613579932</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1904068209322599</v>
+        <v>0.1912049670548094</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>897</v>
@@ -7203,19 +7203,19 @@
         <v>666688</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>620944</v>
+        <v>624282</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>713534</v>
+        <v>710437</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1514526625910531</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1410608605934751</v>
+        <v>0.1418190847236509</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1620946593706348</v>
+        <v>0.1613912011559746</v>
       </c>
     </row>
     <row r="13">
@@ -7232,19 +7232,19 @@
         <v>1474470</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1414694</v>
+        <v>1421274</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1524587</v>
+        <v>1529564</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6610295168019951</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6342311358827624</v>
+        <v>0.6371808213383623</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6834977730981194</v>
+        <v>0.6857291434991483</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1926</v>
@@ -7253,19 +7253,19 @@
         <v>1439111</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1397326</v>
+        <v>1395032</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1477886</v>
+        <v>1483998</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6627595736815033</v>
+        <v>0.6627595736815032</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6435164560967759</v>
+        <v>0.6424597607935125</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.680617086113003</v>
+        <v>0.6834316477171238</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3278</v>
@@ -7274,19 +7274,19 @@
         <v>2913581</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2844367</v>
+        <v>2845536</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2979490</v>
+        <v>2976081</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6618829169210567</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6461593479738555</v>
+        <v>0.6464249260919905</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6768555506121898</v>
+        <v>0.6760809686770953</v>
       </c>
     </row>
     <row r="14">
@@ -7303,19 +7303,19 @@
         <v>410125</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>363521</v>
+        <v>360671</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>465739</v>
+        <v>460195</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.183865898084931</v>
+        <v>0.1838658980849309</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1629726915559671</v>
+        <v>0.1616947056313679</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2087983933952386</v>
+        <v>0.2063132917969758</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>288</v>
@@ -7324,19 +7324,19 @@
         <v>275007</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>244334</v>
+        <v>242031</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>305749</v>
+        <v>310427</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1266501790975589</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1125239568600284</v>
+        <v>0.1114633861115687</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1408079230358872</v>
+        <v>0.1429620433916718</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>547</v>
@@ -7345,19 +7345,19 @@
         <v>685132</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>624652</v>
+        <v>624827</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>746091</v>
+        <v>748734</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.155642605559481</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1419032575612247</v>
+        <v>0.1419429230479425</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1694905947837138</v>
+        <v>0.170091003207077</v>
       </c>
     </row>
     <row r="15">
@@ -7452,16 +7452,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7638</v>
+        <v>7612</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.003096754358115133</v>
+        <v>0.003096754358115132</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01073306417511412</v>
+        <v>0.0106976458349623</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -7470,19 +7470,19 @@
         <v>3287</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1169</v>
+        <v>1218</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7087</v>
+        <v>7298</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.004472563610186131</v>
+        <v>0.00447256361018613</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001590321172233101</v>
+        <v>0.001657456427579197</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.009644467358958277</v>
+        <v>0.009931498576283471</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -7491,19 +7491,19 @@
         <v>5490</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2344</v>
+        <v>2279</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11406</v>
+        <v>10769</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.003795735282713313</v>
+        <v>0.003795735282713312</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001620547803591345</v>
+        <v>0.001575776269241171</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.007885555871573611</v>
+        <v>0.007445024113830434</v>
       </c>
     </row>
     <row r="17">
@@ -7520,19 +7520,19 @@
         <v>12208</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7107</v>
+        <v>6839</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21177</v>
+        <v>20918</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0171565809240091</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00998688664709173</v>
+        <v>0.009610345670417481</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02975972480011215</v>
+        <v>0.02939577608325765</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -7541,19 +7541,19 @@
         <v>8222</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4030</v>
+        <v>4403</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13571</v>
+        <v>13297</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01118855700158654</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.005484291225005726</v>
+        <v>0.005991238890207358</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01846726295391133</v>
+        <v>0.01809361909878897</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>28</v>
@@ -7562,19 +7562,19 @@
         <v>20431</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13511</v>
+        <v>13366</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>29464</v>
+        <v>30173</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0141245218845459</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009340964153314953</v>
+        <v>0.009240477091479495</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02036935101405692</v>
+        <v>0.02085979126513755</v>
       </c>
     </row>
     <row r="18">
@@ -7591,19 +7591,19 @@
         <v>72354</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>56175</v>
+        <v>56862</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>90569</v>
+        <v>91779</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1016790920520741</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07894372340519967</v>
+        <v>0.07990839429220728</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1272781691604571</v>
+        <v>0.1289773022891755</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>135</v>
@@ -7612,19 +7612,19 @@
         <v>92821</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>77612</v>
+        <v>77472</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>109225</v>
+        <v>109761</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1263086292650561</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1056118801855811</v>
+        <v>0.1054222369735049</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1486308541591639</v>
+        <v>0.1493597113557399</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>210</v>
@@ -7633,19 +7633,19 @@
         <v>165175</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>144796</v>
+        <v>143882</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>189912</v>
+        <v>188872</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1141921469451423</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1001032834964674</v>
+        <v>0.09947173285242621</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1312936977132367</v>
+        <v>0.130575266646584</v>
       </c>
     </row>
     <row r="19">
@@ -7662,19 +7662,19 @@
         <v>444786</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>416515</v>
+        <v>414460</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>474576</v>
+        <v>474337</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6250614559036114</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5853330437836929</v>
+        <v>0.5824452181591213</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6669264118152508</v>
+        <v>0.6665899342088129</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>705</v>
@@ -7683,19 +7683,19 @@
         <v>510995</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>485689</v>
+        <v>487699</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>535479</v>
+        <v>535210</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6953477579053675</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6609116135763752</v>
+        <v>0.6636469610024345</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7286652947158401</v>
+        <v>0.7282993388434722</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1159</v>
@@ -7704,19 +7704,19 @@
         <v>955781</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>914970</v>
+        <v>918083</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>990900</v>
+        <v>994555</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.6607704644640795</v>
+        <v>0.6607704644640794</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.632556419788971</v>
+        <v>0.6347083839663827</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6850501169089113</v>
+        <v>0.687576905328558</v>
       </c>
     </row>
     <row r="20">
@@ -7733,19 +7733,19 @@
         <v>180036</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>152215</v>
+        <v>153729</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>208928</v>
+        <v>210000</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2530061167621903</v>
+        <v>0.2530061167621902</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2139094063581967</v>
+        <v>0.2160364588368612</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.293608548043409</v>
+        <v>0.2951143498561239</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>146</v>
@@ -7754,19 +7754,19 @@
         <v>119552</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>100260</v>
+        <v>100705</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>140163</v>
+        <v>139740</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1626824922178036</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1364303847098919</v>
+        <v>0.1370363068917936</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1907304432499971</v>
+        <v>0.1901542868749714</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>281</v>
@@ -7775,19 +7775,19 @@
         <v>299587</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>267186</v>
+        <v>264480</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>337237</v>
+        <v>333835</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2071171314235191</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1847164108701116</v>
+        <v>0.1828456814021709</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2331458635719161</v>
+        <v>0.2307938308595093</v>
       </c>
     </row>
     <row r="21">
@@ -7879,19 +7879,19 @@
         <v>38527</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27972</v>
+        <v>28051</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53325</v>
+        <v>51685</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.01094317091996334</v>
+        <v>0.01094317091996335</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007945094332418653</v>
+        <v>0.007967568336030585</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01514631445120937</v>
+        <v>0.01468048873465326</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>86</v>
@@ -7900,19 +7900,19 @@
         <v>49388</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39964</v>
+        <v>39164</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>61717</v>
+        <v>60395</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01324682217209892</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01071915435982701</v>
+        <v>0.01050455361092836</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0165535219558638</v>
+        <v>0.01619904589508526</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>130</v>
@@ -7921,19 +7921,19 @@
         <v>87916</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>73323</v>
+        <v>73887</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>106589</v>
+        <v>107961</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01212798696186103</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01011488714928526</v>
+        <v>0.01019274957417227</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01470396619525957</v>
+        <v>0.01489318156540458</v>
       </c>
     </row>
     <row r="23">
@@ -7950,19 +7950,19 @@
         <v>115602</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>97037</v>
+        <v>98010</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>134947</v>
+        <v>136035</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.03283521251060072</v>
+        <v>0.03283521251060073</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02756202868733737</v>
+        <v>0.02783823585089815</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03832989331308973</v>
+        <v>0.03863874020410216</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>354</v>
@@ -7971,19 +7971,19 @@
         <v>198664</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>180170</v>
+        <v>179421</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>220978</v>
+        <v>220126</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05328535600925818</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04832500800837387</v>
+        <v>0.04812402110762096</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05927036448164093</v>
+        <v>0.05904176461347494</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>511</v>
@@ -7992,19 +7992,19 @@
         <v>314267</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>288870</v>
+        <v>286903</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>344736</v>
+        <v>343928</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04335314922253015</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03984970975791859</v>
+        <v>0.03957829604746289</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04755642973157449</v>
+        <v>0.04744490827337552</v>
       </c>
     </row>
     <row r="24">
@@ -8021,19 +8021,19 @@
         <v>504398</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>461943</v>
+        <v>464301</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>546138</v>
+        <v>545471</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1432670231115435</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1312084800021304</v>
+        <v>0.1318779961544637</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1551227462524724</v>
+        <v>0.1549331887984355</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1266</v>
@@ -8042,19 +8042,19 @@
         <v>777378</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>738815</v>
+        <v>736462</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>826259</v>
+        <v>820388</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2085069055302438</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.19816374022515</v>
+        <v>0.1975324483715529</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2216178676941474</v>
+        <v>0.2200431324359933</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1843</v>
@@ -8063,19 +8063,19 @@
         <v>1281776</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1225513</v>
+        <v>1219855</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1338588</v>
+        <v>1342956</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1768212597563208</v>
+        <v>0.1768212597563209</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1690598071772308</v>
+        <v>0.1682793343381044</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1846585367942047</v>
+        <v>0.1852611103360474</v>
       </c>
     </row>
     <row r="25">
@@ -8092,19 +8092,19 @@
         <v>2212086</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2144003</v>
+        <v>2139931</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2277686</v>
+        <v>2270872</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6283116658950924</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6089737069747783</v>
+        <v>0.6078168856052676</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6469443186379727</v>
+        <v>0.6450088849402547</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3175</v>
@@ -8113,19 +8113,19 @@
         <v>2283381</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2230294</v>
+        <v>2225498</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2335593</v>
+        <v>2342182</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.6124445584167822</v>
+        <v>0.612444558416782</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5982054675692628</v>
+        <v>0.5969191604281524</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6264486081748719</v>
+        <v>0.6282158895281968</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5318</v>
@@ -8134,19 +8134,19 @@
         <v>4495468</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4401628</v>
+        <v>4406036</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4574417</v>
+        <v>4573471</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.6201508805065105</v>
+        <v>0.6201508805065103</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6072056880195001</v>
+        <v>0.6078138334008859</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.631041967508007</v>
+        <v>0.6309114498490697</v>
       </c>
     </row>
     <row r="26">
@@ -8163,19 +8163,19 @@
         <v>650069</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>593936</v>
+        <v>593952</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>711177</v>
+        <v>712234</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1846429275628</v>
+        <v>0.1846429275628001</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1686992216347673</v>
+        <v>0.1687037060175016</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.201999743225035</v>
+        <v>0.2022998480557122</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>471</v>
@@ -8184,19 +8184,19 @@
         <v>419496</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>383446</v>
+        <v>382040</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>463105</v>
+        <v>466979</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1125163578716169</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1028471726532764</v>
+        <v>0.1024701844301988</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1242131491520397</v>
+        <v>0.1252522739127648</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>914</v>
@@ -8205,19 +8205,19 @@
         <v>1069565</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>997383</v>
+        <v>998531</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1149067</v>
+        <v>1143030</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1475467235527776</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1375891775106485</v>
+        <v>0.137747552613875</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1585140677033415</v>
+        <v>0.1576813242576123</v>
       </c>
     </row>
     <row r="27">
